--- a/OS Levels/Windows Server 2025/Test-AdminSDHolderBaseline.xlsx
+++ b/OS Levels/Windows Server 2025/Test-AdminSDHolderBaseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Source\AdminSDHolder\OS Levels\Windows Server 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AE688C0-5FAD-4E3A-AFCE-97AD407095FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2C6DD4-299A-4E26-88AE-FA77D7A58167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C1704BE0-07CC-4F4D-9542-EF39F0A49697}"/>
+    <workbookView xWindow="39010" yWindow="4210" windowWidth="28800" windowHeight="15290" xr2:uid="{C1704BE0-07CC-4F4D-9542-EF39F0A49697}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-AdminSDHolderBaseline" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test-AdminSDHolderBaseline'!$A$1:$R$110</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2113,11 +2126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B978A773-D3A8-43B1-85B4-61589262203E}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2250,7 +2262,7 @@
         <v>45770.432870370372</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2303,7 +2315,7 @@
         <v>45761.569872685184</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2515,7 +2527,7 @@
         <v>45770.432928240742</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2568,7 +2580,7 @@
         <v>45770.432372685187</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2621,7 +2633,7 @@
         <v>45761.569398148145</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -2674,7 +2686,7 @@
         <v>45761.569398148145</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -2727,7 +2739,7 @@
         <v>45761.569398148145</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -2780,7 +2792,7 @@
         <v>45770.432916666665</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2833,7 +2845,7 @@
         <v>45761.569398148145</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2886,7 +2898,7 @@
         <v>45761.569398148145</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -2939,7 +2951,7 @@
         <v>45761.569398148145</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2992,7 +3004,7 @@
         <v>45770.432337962964</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -3045,7 +3057,7 @@
         <v>45761.569398148145</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -3098,7 +3110,7 @@
         <v>45761.569398148145</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -3151,7 +3163,7 @@
         <v>45761.569398148145</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -3204,7 +3216,7 @@
         <v>45770.432372685187</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -3257,7 +3269,7 @@
         <v>45770.433020833334</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -3310,7 +3322,7 @@
         <v>45770.432939814818</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -3363,7 +3375,7 @@
         <v>45761.569398148145</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -3416,7 +3428,7 @@
         <v>45761.569398148145</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -3637,7 +3649,7 @@
         <v>45770.432905092595</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -3749,7 +3761,7 @@
         <v>45770.43236111111</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3805,7 +3817,7 @@
         <v>45761.569872685184</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -3861,7 +3873,7 @@
         <v>45761.569872685184</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>150</v>
       </c>
@@ -3917,7 +3929,7 @@
         <v>45770.432893518519</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>154</v>
       </c>
@@ -4076,7 +4088,7 @@
         <v>45770.432337962964</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>166</v>
       </c>
@@ -4129,7 +4141,7 @@
         <v>45761.569872685184</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>171</v>
       </c>
@@ -4182,7 +4194,7 @@
         <v>45770.432962962965</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>175</v>
       </c>
@@ -4235,7 +4247,7 @@
         <v>45761.569872685184</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>179</v>
       </c>
@@ -4288,7 +4300,7 @@
         <v>45761.569872685184</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -4341,7 +4353,7 @@
         <v>45770.432928240742</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -4450,7 +4462,7 @@
         <v>45770.432881944442</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>194</v>
       </c>
@@ -4503,7 +4515,7 @@
         <v>45770.432997685188</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -4556,7 +4568,7 @@
         <v>45770.432951388888</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>202</v>
       </c>
@@ -4715,7 +4727,7 @@
         <v>45770.432962962965</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -4768,7 +4780,7 @@
         <v>45770.432916666665</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>218</v>
       </c>
@@ -4821,7 +4833,7 @@
         <v>45770.432349537034</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>222</v>
       </c>
@@ -4874,7 +4886,7 @@
         <v>45770.432858796295</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>228</v>
       </c>
@@ -4983,7 +4995,7 @@
         <v>45761.580393518518</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>239</v>
       </c>
@@ -5095,7 +5107,7 @@
         <v>45761.580393518518</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>248</v>
       </c>
@@ -5148,7 +5160,7 @@
         <v>45761.724768518521</v>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>253</v>
       </c>
@@ -5201,7 +5213,7 @@
         <v>45762.478252314817</v>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>257</v>
       </c>
@@ -5254,7 +5266,7 @@
         <v>45762.478252314817</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>261</v>
       </c>
@@ -5310,7 +5322,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>266</v>
       </c>
@@ -5363,7 +5375,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>271</v>
       </c>
@@ -5419,7 +5431,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>275</v>
       </c>
@@ -5475,7 +5487,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>279</v>
       </c>
@@ -5531,7 +5543,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>282</v>
       </c>
@@ -5640,7 +5652,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>290</v>
       </c>
@@ -5696,7 +5708,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>293</v>
       </c>
@@ -5749,7 +5761,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>274</v>
       </c>
@@ -5802,7 +5814,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>298</v>
       </c>
@@ -5855,7 +5867,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>301</v>
       </c>
@@ -5908,7 +5920,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>304</v>
       </c>
@@ -5961,7 +5973,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>307</v>
       </c>
@@ -6344,7 +6356,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>278</v>
       </c>
@@ -6397,7 +6409,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>264</v>
       </c>
@@ -6450,7 +6462,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>335</v>
       </c>
@@ -6503,7 +6515,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -6556,7 +6568,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>339</v>
       </c>
@@ -6609,7 +6621,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>341</v>
       </c>
@@ -6662,7 +6674,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>343</v>
       </c>
@@ -6715,7 +6727,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>345</v>
       </c>
@@ -6768,7 +6780,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>347</v>
       </c>
@@ -6821,7 +6833,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>349</v>
       </c>
@@ -6874,7 +6886,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>351</v>
       </c>
@@ -6927,7 +6939,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>353</v>
       </c>
@@ -6980,7 +6992,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>355</v>
       </c>
@@ -7033,7 +7045,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>357</v>
       </c>
@@ -7086,7 +7098,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>359</v>
       </c>
@@ -7139,7 +7151,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>361</v>
       </c>
@@ -7192,7 +7204,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>363</v>
       </c>
@@ -7245,7 +7257,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>365</v>
       </c>
@@ -7298,7 +7310,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>367</v>
       </c>
@@ -7351,7 +7363,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>369</v>
       </c>
@@ -7404,7 +7416,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>372</v>
       </c>
@@ -7457,7 +7469,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>374</v>
       </c>
@@ -7775,7 +7787,7 @@
         <v>45762.478136574071</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>386</v>
       </c>
@@ -7828,7 +7840,7 @@
         <v>45762.478252314817</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>390</v>
       </c>
@@ -7881,7 +7893,7 @@
         <v>45762.478252314817</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>394</v>
       </c>
@@ -8047,13 +8059,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R110" xr:uid="{B978A773-D3A8-43B1-85B4-61589262203E}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R110" xr:uid="{B978A773-D3A8-43B1-85B4-61589262203E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
